--- a/database.xlsx
+++ b/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="508" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB267521-FC83-403B-A74F-BCC09E13C9B6}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8590D819-ABF6-4A49-A0F6-1515B69C8BFD}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,51 +234,48 @@
     <t>APP</t>
   </si>
   <si>
-    <t>TEAMCA;</t>
+    <t>LCol Thomas (CA HQ);</t>
   </si>
   <si>
     <t>goPriuvEct8</t>
   </si>
   <si>
-    <t>TEAM1;</t>
+    <t>CWO Bantock (3 Div);</t>
   </si>
   <si>
     <t>UtvnXcVxgd8</t>
   </si>
   <si>
-    <t>TEAM2;</t>
+    <t>CWO Leamon (4 Div);</t>
   </si>
   <si>
     <t>QQAEugE4Z7g</t>
   </si>
   <si>
-    <t>TEAM11;</t>
+    <t>Capt Li (1 CMBG);</t>
   </si>
   <si>
     <t>NYDEXL6EFRE</t>
   </si>
   <si>
-    <t>TEAM111;</t>
+    <t>CWO Barter (2 PPCLI);</t>
   </si>
   <si>
     <t>NYDzFlmePiE</t>
   </si>
   <si>
-    <t>TEAM112A;TEAM112B;TEAM112C;</t>
+    <t>Maj Rixen (1 PPCLI);Maj Gray (1 PPCLI);</t>
   </si>
   <si>
     <t>_U2IXK2ATns</t>
   </si>
   <si>
-    <t>TEAM112A;TEAM112B;</t>
+    <t>Maj Rixen (1 PPCLI);</t>
   </si>
   <si>
     <t>nZkPVjaXZzM</t>
   </si>
   <si>
-    <t>TEAM112A;</t>
-  </si>
-  <si>
     <t>R9JVx2-A7iw</t>
   </si>
   <si>
@@ -336,7 +333,7 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>LCol Peterson (1 PPCLI);Maj Rixen (1 PPCLI);</t>
+    <t>Capt Tang (1 PPCLI);LCol Peterson (1 PPCLI);</t>
   </si>
   <si>
     <t>no</t>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>BGen Oberwarth (4 Div);LGen Wright (CA HQ);</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>g4pyyH3F6JY</t>
@@ -570,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -584,6 +584,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,14 +989,14 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4 B4"/>
+      <selection activeCell="I3" sqref="I3 I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1317,14 +1320,14 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20 D20"/>
+      <selection activeCell="C20" sqref="C20 C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="30.5703125" customWidth="1"/>
+    <col min="3" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1349,163 +1352,163 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
         <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +1524,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1543,63 +1546,63 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="57.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>45608.541666666664</v>
+        <v>45608.541666666701</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>15</v>
@@ -1608,31 +1611,31 @@
         <v>59</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29.25" customHeight="1">
@@ -1643,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>45613.541666666664</v>
+        <v>45613.541666666701</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>22</v>
@@ -1655,28 +1658,28 @@
         <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>109</v>
@@ -1690,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>45616.541666666664</v>
+        <v>45616.541666666701</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>110</v>
@@ -1714,7 +1717,7 @@
         <v>114</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>7</v>
@@ -1723,7 +1726,7 @@
         <v>115</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>116</v>
@@ -1737,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>45626.541666666664</v>
+        <v>45626.541666666701</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>38</v>
@@ -1761,7 +1764,7 @@
         <v>120</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>121</v>
@@ -1770,7 +1773,7 @@
         <v>122</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>123</v>
@@ -1787,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>45598.541666666664</v>
+        <v>45598.541666666701</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>124</v>
@@ -1817,7 +1820,7 @@
         <v>131</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>132</v>
@@ -1831,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>45577.541666666664</v>
+        <v>45577.541666666701</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>133</v>
@@ -1864,7 +1867,7 @@
         <v>139</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>140</v>
@@ -1899,7 +1902,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>142</v>
